--- a/data/panelapp/au/Genetic Epilepsy.xlsx
+++ b/data/panelapp/au/Genetic Epilepsy.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268696</t>
+          <t>2021-10-05 14:33:53.538390</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268708</t>
+          <t>2021-10-05 14:33:53.538397</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268712</t>
+          <t>2021-10-05 14:33:53.538400</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268714</t>
+          <t>2021-10-05 14:33:53.538403</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268717</t>
+          <t>2021-10-05 14:33:53.538405</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268720</t>
+          <t>2021-10-05 14:33:53.538408</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268722</t>
+          <t>2021-10-05 14:33:53.538410</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268725</t>
+          <t>2021-10-05 14:33:53.538413</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268728</t>
+          <t>2021-10-05 14:33:53.538415</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268731</t>
+          <t>2021-10-05 14:33:53.538418</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268734</t>
+          <t>2021-10-05 14:33:53.538420</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268737</t>
+          <t>2021-10-05 14:33:53.538422</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268739</t>
+          <t>2021-10-05 14:33:53.538425</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268742</t>
+          <t>2021-10-05 14:33:53.538427</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268745</t>
+          <t>2021-10-05 14:33:53.538429</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268747</t>
+          <t>2021-10-05 14:33:53.538431</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268750</t>
+          <t>2021-10-05 14:33:53.538434</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268753</t>
+          <t>2021-10-05 14:33:53.538437</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268756</t>
+          <t>2021-10-05 14:33:53.538439</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268759</t>
+          <t>2021-10-05 14:33:53.538442</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268761</t>
+          <t>2021-10-05 14:33:53.538444</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268764</t>
+          <t>2021-10-05 14:33:53.538447</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268767</t>
+          <t>2021-10-05 14:33:53.538449</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268769</t>
+          <t>2021-10-05 14:33:53.538452</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268773</t>
+          <t>2021-10-05 14:33:53.538455</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268775</t>
+          <t>2021-10-05 14:33:53.538457</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268778</t>
+          <t>2021-10-05 14:33:53.538460</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268780</t>
+          <t>2021-10-05 14:33:53.538462</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268783</t>
+          <t>2021-10-05 14:33:53.538464</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268786</t>
+          <t>2021-10-05 14:33:53.538467</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268788</t>
+          <t>2021-10-05 14:33:53.538469</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268791</t>
+          <t>2021-10-05 14:33:53.538471</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268794</t>
+          <t>2021-10-05 14:33:53.538474</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268797</t>
+          <t>2021-10-05 14:33:53.538477</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268800</t>
+          <t>2021-10-05 14:33:53.538479</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268802</t>
+          <t>2021-10-05 14:33:53.538481</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268805</t>
+          <t>2021-10-05 14:33:53.538484</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268808</t>
+          <t>2021-10-05 14:33:53.538486</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268810</t>
+          <t>2021-10-05 14:33:53.538489</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268813</t>
+          <t>2021-10-05 14:33:53.538491</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268816</t>
+          <t>2021-10-05 14:33:53.538494</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268819</t>
+          <t>2021-10-05 14:33:53.538496</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268821</t>
+          <t>2021-10-05 14:33:53.538499</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268824</t>
+          <t>2021-10-05 14:33:53.538501</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268826</t>
+          <t>2021-10-05 14:33:53.538503</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268829</t>
+          <t>2021-10-05 14:33:53.538509</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268832</t>
+          <t>2021-10-05 14:33:53.538511</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268834</t>
+          <t>2021-10-05 14:33:53.538514</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268837</t>
+          <t>2021-10-05 14:33:53.538516</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268839</t>
+          <t>2021-10-05 14:33:53.538519</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268842</t>
+          <t>2021-10-05 14:33:53.538521</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268845</t>
+          <t>2021-10-05 14:33:53.538524</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268848</t>
+          <t>2021-10-05 14:33:53.538526</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268851</t>
+          <t>2021-10-05 14:33:53.538529</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268853</t>
+          <t>2021-10-05 14:33:53.538531</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268856</t>
+          <t>2021-10-05 14:33:53.538533</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268859</t>
+          <t>2021-10-05 14:33:53.538536</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268862</t>
+          <t>2021-10-05 14:33:53.538538</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268864</t>
+          <t>2021-10-05 14:33:53.538540</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268866</t>
+          <t>2021-10-05 14:33:53.538542</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268869</t>
+          <t>2021-10-05 14:33:53.538545</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268871</t>
+          <t>2021-10-05 14:33:53.538547</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268874</t>
+          <t>2021-10-05 14:33:53.538549</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268876</t>
+          <t>2021-10-05 14:33:53.538551</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268880</t>
+          <t>2021-10-05 14:33:53.538554</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268883</t>
+          <t>2021-10-05 14:33:53.538557</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268885</t>
+          <t>2021-10-05 14:33:53.538559</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268887</t>
+          <t>2021-10-05 14:33:53.538561</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268890</t>
+          <t>2021-10-05 14:33:53.538564</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268892</t>
+          <t>2021-10-05 14:33:53.538566</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268895</t>
+          <t>2021-10-05 14:33:53.538568</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268897</t>
+          <t>2021-10-05 14:33:53.538570</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268900</t>
+          <t>2021-10-05 14:33:53.538573</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268902</t>
+          <t>2021-10-05 14:33:53.538575</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268905</t>
+          <t>2021-10-05 14:33:53.538577</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268907</t>
+          <t>2021-10-05 14:33:53.538579</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268912</t>
+          <t>2021-10-05 14:33:53.538583</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268915</t>
+          <t>2021-10-05 14:33:53.538586</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268917</t>
+          <t>2021-10-05 14:33:53.538589</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268920</t>
+          <t>2021-10-05 14:33:53.538591</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268922</t>
+          <t>2021-10-05 14:33:53.538593</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268925</t>
+          <t>2021-10-05 14:33:53.538596</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268927</t>
+          <t>2021-10-05 14:33:53.538598</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268930</t>
+          <t>2021-10-05 14:33:53.538600</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268932</t>
+          <t>2021-10-05 14:33:53.538602</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268934</t>
+          <t>2021-10-05 14:33:53.538604</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268937</t>
+          <t>2021-10-05 14:33:53.538607</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268939</t>
+          <t>2021-10-05 14:33:53.538609</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268942</t>
+          <t>2021-10-05 14:33:53.538611</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268944</t>
+          <t>2021-10-05 14:33:53.538613</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268947</t>
+          <t>2021-10-05 14:33:53.538616</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268949</t>
+          <t>2021-10-05 14:33:53.538618</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268953</t>
+          <t>2021-10-05 14:33:53.538621</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268956</t>
+          <t>2021-10-05 14:33:53.538624</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268958</t>
+          <t>2021-10-05 14:33:53.538626</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268960</t>
+          <t>2021-10-05 14:33:53.538629</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268963</t>
+          <t>2021-10-05 14:33:53.538631</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268965</t>
+          <t>2021-10-05 14:33:53.538633</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268968</t>
+          <t>2021-10-05 14:33:53.538635</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268970</t>
+          <t>2021-10-05 14:33:53.538638</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268973</t>
+          <t>2021-10-05 14:33:53.538640</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268975</t>
+          <t>2021-10-05 14:33:53.538642</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268977</t>
+          <t>2021-10-05 14:33:53.538644</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268980</t>
+          <t>2021-10-05 14:33:53.538646</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268982</t>
+          <t>2021-10-05 14:33:53.538649</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268985</t>
+          <t>2021-10-05 14:33:53.538651</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268987</t>
+          <t>2021-10-05 14:33:53.538653</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268989</t>
+          <t>2021-10-05 14:33:53.538655</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268994</t>
+          <t>2021-10-05 14:33:53.538660</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.268997</t>
+          <t>2021-10-05 14:33:53.538662</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269000</t>
+          <t>2021-10-05 14:33:53.538665</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269002</t>
+          <t>2021-10-05 14:33:53.538667</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269005</t>
+          <t>2021-10-05 14:33:53.538669</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269007</t>
+          <t>2021-10-05 14:33:53.538671</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269010</t>
+          <t>2021-10-05 14:33:53.538673</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269012</t>
+          <t>2021-10-05 14:33:53.538676</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269015</t>
+          <t>2021-10-05 14:33:53.538678</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269017</t>
+          <t>2021-10-05 14:33:53.538680</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269020</t>
+          <t>2021-10-05 14:33:53.538682</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269022</t>
+          <t>2021-10-05 14:33:53.538685</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269024</t>
+          <t>2021-10-05 14:33:53.538687</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269027</t>
+          <t>2021-10-05 14:33:53.538689</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269029</t>
+          <t>2021-10-05 14:33:53.538691</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269032</t>
+          <t>2021-10-05 14:33:53.538693</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269034</t>
+          <t>2021-10-05 14:33:53.538696</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269036</t>
+          <t>2021-10-05 14:33:53.538698</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269039</t>
+          <t>2021-10-05 14:33:53.538700</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269041</t>
+          <t>2021-10-05 14:33:53.538702</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269046</t>
+          <t>2021-10-05 14:33:53.538707</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269049</t>
+          <t>2021-10-05 14:33:53.538709</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269051</t>
+          <t>2021-10-05 14:33:53.538712</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269054</t>
+          <t>2021-10-05 14:33:53.538714</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269056</t>
+          <t>2021-10-05 14:33:53.538716</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269059</t>
+          <t>2021-10-05 14:33:53.538718</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269061</t>
+          <t>2021-10-05 14:33:53.538721</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269064</t>
+          <t>2021-10-05 14:33:53.538723</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269066</t>
+          <t>2021-10-05 14:33:53.538725</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269069</t>
+          <t>2021-10-05 14:33:53.538727</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269071</t>
+          <t>2021-10-05 14:33:53.538730</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269073</t>
+          <t>2021-10-05 14:33:53.538732</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269076</t>
+          <t>2021-10-05 14:33:53.538734</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269078</t>
+          <t>2021-10-05 14:33:53.538736</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269081</t>
+          <t>2021-10-05 14:33:53.538738</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269083</t>
+          <t>2021-10-05 14:33:53.538741</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269086</t>
+          <t>2021-10-05 14:33:53.538743</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269088</t>
+          <t>2021-10-05 14:33:53.538745</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269091</t>
+          <t>2021-10-05 14:33:53.538747</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269093</t>
+          <t>2021-10-05 14:33:53.538750</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269096</t>
+          <t>2021-10-05 14:33:53.538752</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269098</t>
+          <t>2021-10-05 14:33:53.538755</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269101</t>
+          <t>2021-10-05 14:33:53.538757</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269103</t>
+          <t>2021-10-05 14:33:53.538759</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269106</t>
+          <t>2021-10-05 14:33:53.538762</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269108</t>
+          <t>2021-10-05 14:33:53.538764</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269111</t>
+          <t>2021-10-05 14:33:53.538766</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269113</t>
+          <t>2021-10-05 14:33:53.538768</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269116</t>
+          <t>2021-10-05 14:33:53.538770</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269118</t>
+          <t>2021-10-05 14:33:53.538773</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269121</t>
+          <t>2021-10-05 14:33:53.538775</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269123</t>
+          <t>2021-10-05 14:33:53.538777</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269125</t>
+          <t>2021-10-05 14:33:53.538779</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269128</t>
+          <t>2021-10-05 14:33:53.538781</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269130</t>
+          <t>2021-10-05 14:33:53.538784</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269133</t>
+          <t>2021-10-05 14:33:53.538786</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269135</t>
+          <t>2021-10-05 14:33:53.538788</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269138</t>
+          <t>2021-10-05 14:33:53.538790</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269140</t>
+          <t>2021-10-05 14:33:53.538793</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269142</t>
+          <t>2021-10-05 14:33:53.538795</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269145</t>
+          <t>2021-10-05 14:33:53.538797</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269147</t>
+          <t>2021-10-05 14:33:53.538799</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269150</t>
+          <t>2021-10-05 14:33:53.538802</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269152</t>
+          <t>2021-10-05 14:33:53.538804</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269156</t>
+          <t>2021-10-05 14:33:53.538807</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269159</t>
+          <t>2021-10-05 14:33:53.538810</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269162</t>
+          <t>2021-10-05 14:33:53.538812</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269164</t>
+          <t>2021-10-05 14:33:53.538814</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269167</t>
+          <t>2021-10-05 14:33:53.538816</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269169</t>
+          <t>2021-10-05 14:33:53.538819</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269171</t>
+          <t>2021-10-05 14:33:53.538821</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269174</t>
+          <t>2021-10-05 14:33:53.538823</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269176</t>
+          <t>2021-10-05 14:33:53.538825</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269179</t>
+          <t>2021-10-05 14:33:53.538827</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269181</t>
+          <t>2021-10-05 14:33:53.538830</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269184</t>
+          <t>2021-10-05 14:33:53.538832</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269186</t>
+          <t>2021-10-05 14:33:53.538834</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269189</t>
+          <t>2021-10-05 14:33:53.538837</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269191</t>
+          <t>2021-10-05 14:33:53.538839</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269193</t>
+          <t>2021-10-05 14:33:53.538841</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269196</t>
+          <t>2021-10-05 14:33:53.538843</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269198</t>
+          <t>2021-10-05 14:33:53.538846</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269201</t>
+          <t>2021-10-05 14:33:53.538848</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269203</t>
+          <t>2021-10-05 14:33:53.538850</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269206</t>
+          <t>2021-10-05 14:33:53.538852</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269208</t>
+          <t>2021-10-05 14:33:53.538855</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269211</t>
+          <t>2021-10-05 14:33:53.538857</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269213</t>
+          <t>2021-10-05 14:33:53.538859</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269216</t>
+          <t>2021-10-05 14:33:53.538861</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269218</t>
+          <t>2021-10-05 14:33:53.538864</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269221</t>
+          <t>2021-10-05 14:33:53.538866</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269223</t>
+          <t>2021-10-05 14:33:53.538868</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269226</t>
+          <t>2021-10-05 14:33:53.538870</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269228</t>
+          <t>2021-10-05 14:33:53.538873</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269231</t>
+          <t>2021-10-05 14:33:53.538875</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269233</t>
+          <t>2021-10-05 14:33:53.538877</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269236</t>
+          <t>2021-10-05 14:33:53.538880</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269238</t>
+          <t>2021-10-05 14:33:53.538882</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269241</t>
+          <t>2021-10-05 14:33:53.538884</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269243</t>
+          <t>2021-10-05 14:33:53.538886</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269245</t>
+          <t>2021-10-05 14:33:53.538889</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269248</t>
+          <t>2021-10-05 14:33:53.538891</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269250</t>
+          <t>2021-10-05 14:33:53.538893</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269253</t>
+          <t>2021-10-05 14:33:53.538896</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269255</t>
+          <t>2021-10-05 14:33:53.538898</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269257</t>
+          <t>2021-10-05 14:33:53.538900</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269260</t>
+          <t>2021-10-05 14:33:53.538902</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269262</t>
+          <t>2021-10-05 14:33:53.538904</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269265</t>
+          <t>2021-10-05 14:33:53.538907</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269267</t>
+          <t>2021-10-05 14:33:53.538909</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269270</t>
+          <t>2021-10-05 14:33:53.538911</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269272</t>
+          <t>2021-10-05 14:33:53.538913</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269274</t>
+          <t>2021-10-05 14:33:53.538916</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269277</t>
+          <t>2021-10-05 14:33:53.538918</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269279</t>
+          <t>2021-10-05 14:33:53.538920</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269282</t>
+          <t>2021-10-05 14:33:53.538922</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269284</t>
+          <t>2021-10-05 14:33:53.538924</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269286</t>
+          <t>2021-10-05 14:33:53.538926</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269289</t>
+          <t>2021-10-05 14:33:53.538929</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269291</t>
+          <t>2021-10-05 14:33:53.538931</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269294</t>
+          <t>2021-10-05 14:33:53.538933</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269296</t>
+          <t>2021-10-05 14:33:53.538936</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269299</t>
+          <t>2021-10-05 14:33:53.538938</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269301</t>
+          <t>2021-10-05 14:33:53.538940</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269305</t>
+          <t>2021-10-05 14:33:53.538944</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269307</t>
+          <t>2021-10-05 14:33:53.538946</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269310</t>
+          <t>2021-10-05 14:33:53.538949</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269312</t>
+          <t>2021-10-05 14:33:53.538951</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269315</t>
+          <t>2021-10-05 14:33:53.538953</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269317</t>
+          <t>2021-10-05 14:33:53.538955</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269320</t>
+          <t>2021-10-05 14:33:53.538958</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269322</t>
+          <t>2021-10-05 14:33:53.538960</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269324</t>
+          <t>2021-10-05 14:33:53.538962</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269327</t>
+          <t>2021-10-05 14:33:53.538964</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269330</t>
+          <t>2021-10-05 14:33:53.538966</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269332</t>
+          <t>2021-10-05 14:33:53.538969</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269335</t>
+          <t>2021-10-05 14:33:53.538971</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269337</t>
+          <t>2021-10-05 14:33:53.538973</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269339</t>
+          <t>2021-10-05 14:33:53.538975</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269342</t>
+          <t>2021-10-05 14:33:53.538978</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269344</t>
+          <t>2021-10-05 14:33:53.538980</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269347</t>
+          <t>2021-10-05 14:33:53.538982</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269349</t>
+          <t>2021-10-05 14:33:53.538984</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269352</t>
+          <t>2021-10-05 14:33:53.538987</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269354</t>
+          <t>2021-10-05 14:33:53.538989</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269356</t>
+          <t>2021-10-05 14:33:53.538991</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269359</t>
+          <t>2021-10-05 14:33:53.538993</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269361</t>
+          <t>2021-10-05 14:33:53.538996</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269364</t>
+          <t>2021-10-05 14:33:53.538998</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269366</t>
+          <t>2021-10-05 14:33:53.539000</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269369</t>
+          <t>2021-10-05 14:33:53.539002</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269371</t>
+          <t>2021-10-05 14:33:53.539005</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269373</t>
+          <t>2021-10-05 14:33:53.539007</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269376</t>
+          <t>2021-10-05 14:33:53.539009</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269378</t>
+          <t>2021-10-05 14:33:53.539011</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269381</t>
+          <t>2021-10-05 14:33:53.539014</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269383</t>
+          <t>2021-10-05 14:33:53.539016</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269386</t>
+          <t>2021-10-05 14:33:53.539018</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269388</t>
+          <t>2021-10-05 14:33:53.539020</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269390</t>
+          <t>2021-10-05 14:33:53.539022</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269393</t>
+          <t>2021-10-05 14:33:53.539025</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269396</t>
+          <t>2021-10-05 14:33:53.539027</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269398</t>
+          <t>2021-10-05 14:33:53.539030</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269401</t>
+          <t>2021-10-05 14:33:53.539032</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269403</t>
+          <t>2021-10-05 14:33:53.539034</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269406</t>
+          <t>2021-10-05 14:33:53.539036</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269408</t>
+          <t>2021-10-05 14:33:53.539038</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269411</t>
+          <t>2021-10-05 14:33:53.539041</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269413</t>
+          <t>2021-10-05 14:33:53.539043</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269416</t>
+          <t>2021-10-05 14:33:53.539045</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269418</t>
+          <t>2021-10-05 14:33:53.539047</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269421</t>
+          <t>2021-10-05 14:33:53.539050</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269423</t>
+          <t>2021-10-05 14:33:53.539052</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269426</t>
+          <t>2021-10-05 14:33:53.539054</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269428</t>
+          <t>2021-10-05 14:33:53.539056</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269430</t>
+          <t>2021-10-05 14:33:53.539058</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269433</t>
+          <t>2021-10-05 14:33:53.539061</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269435</t>
+          <t>2021-10-05 14:33:53.539063</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269438</t>
+          <t>2021-10-05 14:33:53.539065</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269440</t>
+          <t>2021-10-05 14:33:53.539067</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269442</t>
+          <t>2021-10-05 14:33:53.539070</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269445</t>
+          <t>2021-10-05 14:33:53.539072</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269447</t>
+          <t>2021-10-05 14:33:53.539074</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269450</t>
+          <t>2021-10-05 14:33:53.539076</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269452</t>
+          <t>2021-10-05 14:33:53.539079</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269455</t>
+          <t>2021-10-05 14:33:53.539081</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269457</t>
+          <t>2021-10-05 14:33:53.539083</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269460</t>
+          <t>2021-10-05 14:33:53.539085</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269462</t>
+          <t>2021-10-05 14:33:53.539088</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269465</t>
+          <t>2021-10-05 14:33:53.539090</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269467</t>
+          <t>2021-10-05 14:33:53.539092</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269469</t>
+          <t>2021-10-05 14:33:53.539095</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269472</t>
+          <t>2021-10-05 14:33:53.539097</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269474</t>
+          <t>2021-10-05 14:33:53.539099</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269477</t>
+          <t>2021-10-05 14:33:53.539101</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269479</t>
+          <t>2021-10-05 14:33:53.539103</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269482</t>
+          <t>2021-10-05 14:33:53.539106</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269484</t>
+          <t>2021-10-05 14:33:53.539108</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269486</t>
+          <t>2021-10-05 14:33:53.539110</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269489</t>
+          <t>2021-10-05 14:33:53.539112</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269493</t>
+          <t>2021-10-05 14:33:53.539116</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269496</t>
+          <t>2021-10-05 14:33:53.539119</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269499</t>
+          <t>2021-10-05 14:33:53.539121</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269501</t>
+          <t>2021-10-05 14:33:53.539123</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269503</t>
+          <t>2021-10-05 14:33:53.539126</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269506</t>
+          <t>2021-10-05 14:33:53.539128</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269508</t>
+          <t>2021-10-05 14:33:53.539130</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269511</t>
+          <t>2021-10-05 14:33:53.539132</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269513</t>
+          <t>2021-10-05 14:33:53.539135</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269516</t>
+          <t>2021-10-05 14:33:53.539137</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269518</t>
+          <t>2021-10-05 14:33:53.539139</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269521</t>
+          <t>2021-10-05 14:33:53.539141</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269523</t>
+          <t>2021-10-05 14:33:53.539144</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269526</t>
+          <t>2021-10-05 14:33:53.539146</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269528</t>
+          <t>2021-10-05 14:33:53.539148</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269530</t>
+          <t>2021-10-05 14:33:53.539150</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269533</t>
+          <t>2021-10-05 14:33:53.539153</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269535</t>
+          <t>2021-10-05 14:33:53.539155</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269538</t>
+          <t>2021-10-05 14:33:53.539157</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269540</t>
+          <t>2021-10-05 14:33:53.539159</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269543</t>
+          <t>2021-10-05 14:33:53.539161</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269545</t>
+          <t>2021-10-05 14:33:53.539164</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269547</t>
+          <t>2021-10-05 14:33:53.539166</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269550</t>
+          <t>2021-10-05 14:33:53.539168</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269552</t>
+          <t>2021-10-05 14:33:53.539170</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269555</t>
+          <t>2021-10-05 14:33:53.539173</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269557</t>
+          <t>2021-10-05 14:33:53.539175</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269560</t>
+          <t>2021-10-05 14:33:53.539177</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269562</t>
+          <t>2021-10-05 14:33:53.539179</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269565</t>
+          <t>2021-10-05 14:33:53.539182</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269567</t>
+          <t>2021-10-05 14:33:53.539184</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269570</t>
+          <t>2021-10-05 14:33:53.539186</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269572</t>
+          <t>2021-10-05 14:33:53.539188</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269574</t>
+          <t>2021-10-05 14:33:53.539190</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269577</t>
+          <t>2021-10-05 14:33:53.539193</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269579</t>
+          <t>2021-10-05 14:33:53.539195</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269582</t>
+          <t>2021-10-05 14:33:53.539197</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269584</t>
+          <t>2021-10-05 14:33:53.539200</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269587</t>
+          <t>2021-10-05 14:33:53.539202</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269589</t>
+          <t>2021-10-05 14:33:53.539204</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269592</t>
+          <t>2021-10-05 14:33:53.539206</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269594</t>
+          <t>2021-10-05 14:33:53.539208</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269597</t>
+          <t>2021-10-05 14:33:53.539211</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269599</t>
+          <t>2021-10-05 14:33:53.539213</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269603</t>
+          <t>2021-10-05 14:33:53.539216</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269606</t>
+          <t>2021-10-05 14:33:53.539219</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269609</t>
+          <t>2021-10-05 14:33:53.539221</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269611</t>
+          <t>2021-10-05 14:33:53.539224</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269614</t>
+          <t>2021-10-05 14:33:53.539226</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269616</t>
+          <t>2021-10-05 14:33:53.539228</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269619</t>
+          <t>2021-10-05 14:33:53.539230</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269621</t>
+          <t>2021-10-05 14:33:53.539232</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269624</t>
+          <t>2021-10-05 14:33:53.539235</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269626</t>
+          <t>2021-10-05 14:33:53.539237</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269629</t>
+          <t>2021-10-05 14:33:53.539239</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269631</t>
+          <t>2021-10-05 14:33:53.539241</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269634</t>
+          <t>2021-10-05 14:33:53.539244</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269636</t>
+          <t>2021-10-05 14:33:53.539246</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269639</t>
+          <t>2021-10-05 14:33:53.539248</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269641</t>
+          <t>2021-10-05 14:33:53.539251</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269644</t>
+          <t>2021-10-05 14:33:53.539253</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269646</t>
+          <t>2021-10-05 14:33:53.539255</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269648</t>
+          <t>2021-10-05 14:33:53.539257</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269651</t>
+          <t>2021-10-05 14:33:53.539260</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269653</t>
+          <t>2021-10-05 14:33:53.539262</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269656</t>
+          <t>2021-10-05 14:33:53.539264</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269658</t>
+          <t>2021-10-05 14:33:53.539267</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269661</t>
+          <t>2021-10-05 14:33:53.539269</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269663</t>
+          <t>2021-10-05 14:33:53.539271</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269666</t>
+          <t>2021-10-05 14:33:53.539274</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269668</t>
+          <t>2021-10-05 14:33:53.539276</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269670</t>
+          <t>2021-10-05 14:33:53.539278</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269673</t>
+          <t>2021-10-05 14:33:53.539280</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269675</t>
+          <t>2021-10-05 14:33:53.539282</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269678</t>
+          <t>2021-10-05 14:33:53.539285</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269680</t>
+          <t>2021-10-05 14:33:53.539287</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269683</t>
+          <t>2021-10-05 14:33:53.539289</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269685</t>
+          <t>2021-10-05 14:33:53.539292</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269688</t>
+          <t>2021-10-05 14:33:53.539294</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269690</t>
+          <t>2021-10-05 14:33:53.539296</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269693</t>
+          <t>2021-10-05 14:33:53.539298</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269695</t>
+          <t>2021-10-05 14:33:53.539300</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269698</t>
+          <t>2021-10-05 14:33:53.539303</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269700</t>
+          <t>2021-10-05 14:33:53.539305</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269703</t>
+          <t>2021-10-05 14:33:53.539307</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269705</t>
+          <t>2021-10-05 14:33:53.539309</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269708</t>
+          <t>2021-10-05 14:33:53.539312</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269710</t>
+          <t>2021-10-05 14:33:53.539314</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269712</t>
+          <t>2021-10-05 14:33:53.539316</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269715</t>
+          <t>2021-10-05 14:33:53.539319</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269717</t>
+          <t>2021-10-05 14:33:53.539321</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269720</t>
+          <t>2021-10-05 14:33:53.539323</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269724</t>
+          <t>2021-10-05 14:33:53.539326</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269727</t>
+          <t>2021-10-05 14:33:53.539329</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269730</t>
+          <t>2021-10-05 14:33:53.539331</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269732</t>
+          <t>2021-10-05 14:33:53.539334</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269735</t>
+          <t>2021-10-05 14:33:53.539336</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269737</t>
+          <t>2021-10-05 14:33:53.539338</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269740</t>
+          <t>2021-10-05 14:33:53.539340</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269742</t>
+          <t>2021-10-05 14:33:53.539343</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269745</t>
+          <t>2021-10-05 14:33:53.539345</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269747</t>
+          <t>2021-10-05 14:33:53.539347</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269750</t>
+          <t>2021-10-05 14:33:53.539349</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269752</t>
+          <t>2021-10-05 14:33:53.539351</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269755</t>
+          <t>2021-10-05 14:33:53.539354</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269757</t>
+          <t>2021-10-05 14:33:53.539356</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269760</t>
+          <t>2021-10-05 14:33:53.539358</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269762</t>
+          <t>2021-10-05 14:33:53.539360</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269765</t>
+          <t>2021-10-05 14:33:53.539362</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269767</t>
+          <t>2021-10-05 14:33:53.539365</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269770</t>
+          <t>2021-10-05 14:33:53.539367</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269772</t>
+          <t>2021-10-05 14:33:53.539369</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269774</t>
+          <t>2021-10-05 14:33:53.539371</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269777</t>
+          <t>2021-10-05 14:33:53.539374</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269780</t>
+          <t>2021-10-05 14:33:53.539376</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269782</t>
+          <t>2021-10-05 14:33:53.539378</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269784</t>
+          <t>2021-10-05 14:33:53.539380</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269787</t>
+          <t>2021-10-05 14:33:53.539383</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269789</t>
+          <t>2021-10-05 14:33:53.539385</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269792</t>
+          <t>2021-10-05 14:33:53.539387</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269794</t>
+          <t>2021-10-05 14:33:53.539390</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269797</t>
+          <t>2021-10-05 14:33:53.539392</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269799</t>
+          <t>2021-10-05 14:33:53.539394</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269801</t>
+          <t>2021-10-05 14:33:53.539396</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269804</t>
+          <t>2021-10-05 14:33:53.539399</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269806</t>
+          <t>2021-10-05 14:33:53.539401</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269809</t>
+          <t>2021-10-05 14:33:53.539403</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269811</t>
+          <t>2021-10-05 14:33:53.539405</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269813</t>
+          <t>2021-10-05 14:33:53.539408</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269816</t>
+          <t>2021-10-05 14:33:53.539410</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269818</t>
+          <t>2021-10-05 14:33:53.539412</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269821</t>
+          <t>2021-10-05 14:33:53.539414</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269823</t>
+          <t>2021-10-05 14:33:53.539416</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269826</t>
+          <t>2021-10-05 14:33:53.539419</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269828</t>
+          <t>2021-10-05 14:33:53.539421</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269830</t>
+          <t>2021-10-05 14:33:53.539423</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269833</t>
+          <t>2021-10-05 14:33:53.539425</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269835</t>
+          <t>2021-10-05 14:33:53.539427</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269838</t>
+          <t>2021-10-05 14:33:53.539430</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269840</t>
+          <t>2021-10-05 14:33:53.539432</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269843</t>
+          <t>2021-10-05 14:33:53.539434</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269845</t>
+          <t>2021-10-05 14:33:53.539437</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269847</t>
+          <t>2021-10-05 14:33:53.539439</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269850</t>
+          <t>2021-10-05 14:33:53.539441</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269852</t>
+          <t>2021-10-05 14:33:53.539443</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269855</t>
+          <t>2021-10-05 14:33:53.539445</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269857</t>
+          <t>2021-10-05 14:33:53.539448</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269860</t>
+          <t>2021-10-05 14:33:53.539450</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269864</t>
+          <t>2021-10-05 14:33:53.539453</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269867</t>
+          <t>2021-10-05 14:33:53.539456</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269870</t>
+          <t>2021-10-05 14:33:53.539459</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269873</t>
+          <t>2021-10-05 14:33:53.539461</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269875</t>
+          <t>2021-10-05 14:33:53.539463</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269878</t>
+          <t>2021-10-05 14:33:53.539465</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269880</t>
+          <t>2021-10-05 14:33:53.539468</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269883</t>
+          <t>2021-10-05 14:33:53.539470</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269885</t>
+          <t>2021-10-05 14:33:53.539472</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269888</t>
+          <t>2021-10-05 14:33:53.539474</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269890</t>
+          <t>2021-10-05 14:33:53.539477</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269893</t>
+          <t>2021-10-05 14:33:53.539479</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269895</t>
+          <t>2021-10-05 14:33:53.539481</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269897</t>
+          <t>2021-10-05 14:33:53.539483</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269900</t>
+          <t>2021-10-05 14:33:53.539485</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269902</t>
+          <t>2021-10-05 14:33:53.539488</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269905</t>
+          <t>2021-10-05 14:33:53.539490</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269907</t>
+          <t>2021-10-05 14:33:53.539492</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269910</t>
+          <t>2021-10-05 14:33:53.539494</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269912</t>
+          <t>2021-10-05 14:33:53.539497</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269915</t>
+          <t>2021-10-05 14:33:53.539499</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269917</t>
+          <t>2021-10-05 14:33:53.539501</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269920</t>
+          <t>2021-10-05 14:33:53.539503</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269922</t>
+          <t>2021-10-05 14:33:53.539506</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269925</t>
+          <t>2021-10-05 14:33:53.539508</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269927</t>
+          <t>2021-10-05 14:33:53.539510</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269929</t>
+          <t>2021-10-05 14:33:53.539512</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269932</t>
+          <t>2021-10-05 14:33:53.539514</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269934</t>
+          <t>2021-10-05 14:33:53.539517</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269937</t>
+          <t>2021-10-05 14:33:53.539519</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269939</t>
+          <t>2021-10-05 14:33:53.539521</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269942</t>
+          <t>2021-10-05 14:33:53.539523</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269944</t>
+          <t>2021-10-05 14:33:53.539525</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269947</t>
+          <t>2021-10-05 14:33:53.539528</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269949</t>
+          <t>2021-10-05 14:33:53.539530</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269952</t>
+          <t>2021-10-05 14:33:53.539532</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269954</t>
+          <t>2021-10-05 14:33:53.539534</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269957</t>
+          <t>2021-10-05 14:33:53.539537</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269959</t>
+          <t>2021-10-05 14:33:53.539539</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269961</t>
+          <t>2021-10-05 14:33:53.539541</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269964</t>
+          <t>2021-10-05 14:33:53.539543</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269966</t>
+          <t>2021-10-05 14:33:53.539546</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269969</t>
+          <t>2021-10-05 14:33:53.539548</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269971</t>
+          <t>2021-10-05 14:33:53.539550</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269974</t>
+          <t>2021-10-05 14:33:53.539552</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269976</t>
+          <t>2021-10-05 14:33:53.539554</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269979</t>
+          <t>2021-10-05 14:33:53.539557</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269981</t>
+          <t>2021-10-05 14:33:53.539559</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269984</t>
+          <t>2021-10-05 14:33:53.539561</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269986</t>
+          <t>2021-10-05 14:33:53.539563</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269989</t>
+          <t>2021-10-05 14:33:53.539566</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269991</t>
+          <t>2021-10-05 14:33:53.539568</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269993</t>
+          <t>2021-10-05 14:33:53.539570</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269996</t>
+          <t>2021-10-05 14:33:53.539572</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.269998</t>
+          <t>2021-10-05 14:33:53.539575</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270001</t>
+          <t>2021-10-05 14:33:53.539577</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270003</t>
+          <t>2021-10-05 14:33:53.539579</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270006</t>
+          <t>2021-10-05 14:33:53.539581</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270008</t>
+          <t>2021-10-05 14:33:53.539583</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270011</t>
+          <t>2021-10-05 14:33:53.539586</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270013</t>
+          <t>2021-10-05 14:33:53.539588</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270016</t>
+          <t>2021-10-05 14:33:53.539590</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270018</t>
+          <t>2021-10-05 14:33:53.539592</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270021</t>
+          <t>2021-10-05 14:33:53.539595</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270024</t>
+          <t>2021-10-05 14:33:53.539598</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270027</t>
+          <t>2021-10-05 14:33:53.539601</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270030</t>
+          <t>2021-10-05 14:33:53.539603</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270032</t>
+          <t>2021-10-05 14:33:53.539606</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270035</t>
+          <t>2021-10-05 14:33:53.539608</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270037</t>
+          <t>2021-10-05 14:33:53.539610</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270040</t>
+          <t>2021-10-05 14:33:53.539613</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270042</t>
+          <t>2021-10-05 14:33:53.539615</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270045</t>
+          <t>2021-10-05 14:33:53.539617</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270047</t>
+          <t>2021-10-05 14:33:53.539619</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270049</t>
+          <t>2021-10-05 14:33:53.539622</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270052</t>
+          <t>2021-10-05 14:33:53.539624</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270054</t>
+          <t>2021-10-05 14:33:53.539626</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270057</t>
+          <t>2021-10-05 14:33:53.539628</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270059</t>
+          <t>2021-10-05 14:33:53.539630</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270062</t>
+          <t>2021-10-05 14:33:53.539633</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270064</t>
+          <t>2021-10-05 14:33:53.539635</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270067</t>
+          <t>2021-10-05 14:33:53.539637</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270069</t>
+          <t>2021-10-05 14:33:53.539639</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270072</t>
+          <t>2021-10-05 14:33:53.539642</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270074</t>
+          <t>2021-10-05 14:33:53.539644</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270076</t>
+          <t>2021-10-05 14:33:53.539646</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270079</t>
+          <t>2021-10-05 14:33:53.539648</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270081</t>
+          <t>2021-10-05 14:33:53.539651</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270084</t>
+          <t>2021-10-05 14:33:53.539653</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270086</t>
+          <t>2021-10-05 14:33:53.539655</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270089</t>
+          <t>2021-10-05 14:33:53.539658</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270091</t>
+          <t>2021-10-05 14:33:53.539660</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270094</t>
+          <t>2021-10-05 14:33:53.539662</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270096</t>
+          <t>2021-10-05 14:33:53.539664</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270099</t>
+          <t>2021-10-05 14:33:53.539666</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270101</t>
+          <t>2021-10-05 14:33:53.539669</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270104</t>
+          <t>2021-10-05 14:33:53.539671</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270106</t>
+          <t>2021-10-05 14:33:53.539673</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270108</t>
+          <t>2021-10-05 14:33:53.539675</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270111</t>
+          <t>2021-10-05 14:33:53.539678</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270113</t>
+          <t>2021-10-05 14:33:53.539680</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270116</t>
+          <t>2021-10-05 14:33:53.539682</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270118</t>
+          <t>2021-10-05 14:33:53.539684</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270121</t>
+          <t>2021-10-05 14:33:53.539687</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270123</t>
+          <t>2021-10-05 14:33:53.539689</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270125</t>
+          <t>2021-10-05 14:33:53.539691</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270128</t>
+          <t>2021-10-05 14:33:53.539693</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270131</t>
+          <t>2021-10-05 14:33:53.539695</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270133</t>
+          <t>2021-10-05 14:33:53.539698</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270136</t>
+          <t>2021-10-05 14:33:53.539700</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270138</t>
+          <t>2021-10-05 14:33:53.539702</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270141</t>
+          <t>2021-10-05 14:33:53.539705</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270143</t>
+          <t>2021-10-05 14:33:53.539707</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270145</t>
+          <t>2021-10-05 14:33:53.539709</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270148</t>
+          <t>2021-10-05 14:33:53.539711</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270150</t>
+          <t>2021-10-05 14:33:53.539713</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270153</t>
+          <t>2021-10-05 14:33:53.539716</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270155</t>
+          <t>2021-10-05 14:33:53.539718</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270158</t>
+          <t>2021-10-05 14:33:53.539720</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270160</t>
+          <t>2021-10-05 14:33:53.539722</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270163</t>
+          <t>2021-10-05 14:33:53.539725</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270165</t>
+          <t>2021-10-05 14:33:53.539727</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270168</t>
+          <t>2021-10-05 14:33:53.539729</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270170</t>
+          <t>2021-10-05 14:33:53.539731</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270173</t>
+          <t>2021-10-05 14:33:53.539733</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270175</t>
+          <t>2021-10-05 14:33:53.539735</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270177</t>
+          <t>2021-10-05 14:33:53.539738</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270180</t>
+          <t>2021-10-05 14:33:53.539740</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270182</t>
+          <t>2021-10-05 14:33:53.539742</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270185</t>
+          <t>2021-10-05 14:33:53.539745</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270187</t>
+          <t>2021-10-05 14:33:53.539747</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270189</t>
+          <t>2021-10-05 14:33:53.539749</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270192</t>
+          <t>2021-10-05 14:33:53.539751</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270194</t>
+          <t>2021-10-05 14:33:53.539753</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270197</t>
+          <t>2021-10-05 14:33:53.539756</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270199</t>
+          <t>2021-10-05 14:33:53.539758</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270203</t>
+          <t>2021-10-05 14:33:53.539761</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270206</t>
+          <t>2021-10-05 14:33:53.539764</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270209</t>
+          <t>2021-10-05 14:33:53.539766</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270211</t>
+          <t>2021-10-05 14:33:53.539769</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270213</t>
+          <t>2021-10-05 14:33:53.539771</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270216</t>
+          <t>2021-10-05 14:33:53.539773</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18427,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270219</t>
+          <t>2021-10-05 14:33:53.539775</t>
         </is>
       </c>
     </row>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270221</t>
+          <t>2021-10-05 14:33:53.539777</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270224</t>
+          <t>2021-10-05 14:33:53.539780</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270226</t>
+          <t>2021-10-05 14:33:53.539782</t>
         </is>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270228</t>
+          <t>2021-10-05 14:33:53.539784</t>
         </is>
       </c>
     </row>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270231</t>
+          <t>2021-10-05 14:33:53.539786</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270233</t>
+          <t>2021-10-05 14:33:53.539789</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18637,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270236</t>
+          <t>2021-10-05 14:33:53.539791</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270238</t>
+          <t>2021-10-05 14:33:53.539793</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18697,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270241</t>
+          <t>2021-10-05 14:33:53.539795</t>
         </is>
       </c>
     </row>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270243</t>
+          <t>2021-10-05 14:33:53.539797</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270246</t>
+          <t>2021-10-05 14:33:53.539800</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270248</t>
+          <t>2021-10-05 14:33:53.539802</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270250</t>
+          <t>2021-10-05 14:33:53.539804</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18847,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270253</t>
+          <t>2021-10-05 14:33:53.539806</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18877,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270255</t>
+          <t>2021-10-05 14:33:53.539809</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270258</t>
+          <t>2021-10-05 14:33:53.539811</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270260</t>
+          <t>2021-10-05 14:33:53.539813</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18967,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270263</t>
+          <t>2021-10-05 14:33:53.539815</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270266</t>
+          <t>2021-10-05 14:33:53.539818</t>
         </is>
       </c>
     </row>
@@ -19026,7 +19027,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270268</t>
+          <t>2021-10-05 14:33:53.539820</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19057,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270270</t>
+          <t>2021-10-05 14:33:53.539822</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19087,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270273</t>
+          <t>2021-10-05 14:33:53.539825</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19117,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270275</t>
+          <t>2021-10-05 14:33:53.539827</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19147,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270278</t>
+          <t>2021-10-05 14:33:53.539829</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19177,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270280</t>
+          <t>2021-10-05 14:33:53.539831</t>
         </is>
       </c>
     </row>
@@ -19206,7 +19207,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270283</t>
+          <t>2021-10-05 14:33:53.539834</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270285</t>
+          <t>2021-10-05 14:33:53.539836</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19267,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270288</t>
+          <t>2021-10-05 14:33:53.539838</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19297,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270290</t>
+          <t>2021-10-05 14:33:53.539840</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19327,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270293</t>
+          <t>2021-10-05 14:33:53.539843</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19357,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270295</t>
+          <t>2021-10-05 14:33:53.539845</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19387,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270298</t>
+          <t>2021-10-05 14:33:53.539847</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270300</t>
+          <t>2021-10-05 14:33:53.539849</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19447,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270303</t>
+          <t>2021-10-05 14:33:53.539852</t>
         </is>
       </c>
     </row>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270305</t>
+          <t>2021-10-05 14:33:53.539854</t>
         </is>
       </c>
     </row>
@@ -19506,7 +19507,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270307</t>
+          <t>2021-10-05 14:33:53.539856</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19537,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270310</t>
+          <t>2021-10-05 14:33:53.539859</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19567,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270313</t>
+          <t>2021-10-05 14:33:53.539861</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270315</t>
+          <t>2021-10-05 14:33:53.539863</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270317</t>
+          <t>2021-10-05 14:33:53.539865</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270320</t>
+          <t>2021-10-05 14:33:53.539868</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270323</t>
+          <t>2021-10-05 14:33:53.539870</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270325</t>
+          <t>2021-10-05 14:33:53.539872</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270328</t>
+          <t>2021-10-05 14:33:53.539874</t>
         </is>
       </c>
     </row>
@@ -19776,7 +19777,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270330</t>
+          <t>2021-10-05 14:33:53.539877</t>
         </is>
       </c>
     </row>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270333</t>
+          <t>2021-10-05 14:33:53.539879</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19837,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270335</t>
+          <t>2021-10-05 14:33:53.539881</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270337</t>
+          <t>2021-10-05 14:33:53.539884</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19897,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270340</t>
+          <t>2021-10-05 14:33:53.539886</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19927,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270342</t>
+          <t>2021-10-05 14:33:53.539888</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19957,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270345</t>
+          <t>2021-10-05 14:33:53.539890</t>
         </is>
       </c>
     </row>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270347</t>
+          <t>2021-10-05 14:33:53.539893</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20017,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270350</t>
+          <t>2021-10-05 14:33:53.539895</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20047,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270352</t>
+          <t>2021-10-05 14:33:53.539897</t>
         </is>
       </c>
     </row>
@@ -20076,7 +20077,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270355</t>
+          <t>2021-10-05 14:33:53.539899</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20107,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270357</t>
+          <t>2021-10-05 14:33:53.539902</t>
         </is>
       </c>
     </row>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270359</t>
+          <t>2021-10-05 14:33:53.539904</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20167,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270362</t>
+          <t>2021-10-05 14:33:53.539906</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20197,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270364</t>
+          <t>2021-10-05 14:33:53.539909</t>
         </is>
       </c>
     </row>
@@ -20226,7 +20227,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270367</t>
+          <t>2021-10-05 14:33:53.539911</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20257,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270369</t>
+          <t>2021-10-05 14:33:53.539913</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20287,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270372</t>
+          <t>2021-10-05 14:33:53.539916</t>
         </is>
       </c>
     </row>
@@ -20316,7 +20317,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270374</t>
+          <t>2021-10-05 14:33:53.539918</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20347,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270377</t>
+          <t>2021-10-05 14:33:53.539920</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20377,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270379</t>
+          <t>2021-10-05 14:33:53.539922</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20407,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270382</t>
+          <t>2021-10-05 14:33:53.539924</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20437,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270384</t>
+          <t>2021-10-05 14:33:53.539927</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20467,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270387</t>
+          <t>2021-10-05 14:33:53.539929</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20497,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270389</t>
+          <t>2021-10-05 14:33:53.539931</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270391</t>
+          <t>2021-10-05 14:33:53.539933</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270394</t>
+          <t>2021-10-05 14:33:53.539936</t>
         </is>
       </c>
     </row>
@@ -20586,7 +20587,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270396</t>
+          <t>2021-10-05 14:33:53.539938</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20617,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270399</t>
+          <t>2021-10-05 14:33:53.539940</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20647,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270402</t>
+          <t>2021-10-05 14:33:53.539944</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20677,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270406</t>
+          <t>2021-10-05 14:33:53.539947</t>
         </is>
       </c>
     </row>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270408</t>
+          <t>2021-10-05 14:33:53.539949</t>
         </is>
       </c>
     </row>
@@ -20736,7 +20737,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270411</t>
+          <t>2021-10-05 14:33:53.539952</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20767,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270413</t>
+          <t>2021-10-05 14:33:53.539954</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20797,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270416</t>
+          <t>2021-10-05 14:33:53.539956</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20827,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270418</t>
+          <t>2021-10-05 14:33:53.539958</t>
         </is>
       </c>
     </row>
@@ -20856,7 +20857,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270421</t>
+          <t>2021-10-05 14:33:53.539960</t>
         </is>
       </c>
     </row>
@@ -20886,7 +20887,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270423</t>
+          <t>2021-10-05 14:33:53.539963</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20917,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270425</t>
+          <t>2021-10-05 14:33:53.539965</t>
         </is>
       </c>
     </row>
@@ -20946,7 +20947,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270428</t>
+          <t>2021-10-05 14:33:53.539967</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20977,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270431</t>
+          <t>2021-10-05 14:33:53.539969</t>
         </is>
       </c>
     </row>
@@ -21006,7 +21007,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270433</t>
+          <t>2021-10-05 14:33:53.539972</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21037,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270435</t>
+          <t>2021-10-05 14:33:53.539974</t>
         </is>
       </c>
     </row>
@@ -21066,7 +21067,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270438</t>
+          <t>2021-10-05 14:33:53.539976</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21097,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270440</t>
+          <t>2021-10-05 14:33:53.539978</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270443</t>
+          <t>2021-10-05 14:33:53.539981</t>
         </is>
       </c>
     </row>
@@ -21156,7 +21157,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270446</t>
+          <t>2021-10-05 14:33:53.539983</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21187,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270448</t>
+          <t>2021-10-05 14:33:53.539985</t>
         </is>
       </c>
     </row>
@@ -21216,7 +21217,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270451</t>
+          <t>2021-10-05 14:33:53.539988</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21247,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270454</t>
+          <t>2021-10-05 14:33:53.539990</t>
         </is>
       </c>
     </row>
@@ -21276,7 +21277,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270456</t>
+          <t>2021-10-05 14:33:53.539993</t>
         </is>
       </c>
     </row>
@@ -21306,7 +21307,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270459</t>
+          <t>2021-10-05 14:33:53.539995</t>
         </is>
       </c>
     </row>
@@ -21336,7 +21337,91 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:56.270462</t>
+          <t>2021-10-05 14:33:53.539997</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Genetic Epilepsy</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>202</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-05T10:45:07.144751Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:53.535302</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/202/?format=json</t>
         </is>
       </c>
     </row>
